--- a/Code/Results/Cases/Case_0_151/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_151/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.036005189330286</v>
+        <v>1.081008657837123</v>
       </c>
       <c r="D2">
-        <v>1.047011572555593</v>
+        <v>1.085986822212265</v>
       </c>
       <c r="E2">
-        <v>1.045775493204852</v>
+        <v>1.084533756139163</v>
       </c>
       <c r="F2">
-        <v>1.053926614693991</v>
+        <v>1.09615399901796</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.061897206151398</v>
+        <v>1.050697501367217</v>
       </c>
       <c r="J2">
-        <v>1.057159850171626</v>
+        <v>1.085885365653844</v>
       </c>
       <c r="K2">
-        <v>1.057852625259652</v>
+        <v>1.088645832764586</v>
       </c>
       <c r="L2">
-        <v>1.056631915450066</v>
+        <v>1.08719652855668</v>
       </c>
       <c r="M2">
-        <v>1.064682511887512</v>
+        <v>1.098786988442533</v>
       </c>
       <c r="N2">
-        <v>1.058661138416799</v>
+        <v>1.087427447425865</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.043999405577189</v>
+        <v>1.082593907448944</v>
       </c>
       <c r="D3">
-        <v>1.054124201182036</v>
+        <v>1.087441188987589</v>
       </c>
       <c r="E3">
-        <v>1.052744636843693</v>
+        <v>1.085961616526383</v>
       </c>
       <c r="F3">
-        <v>1.061418959473813</v>
+        <v>1.097702308494605</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.064441792842436</v>
+        <v>1.051069649742426</v>
       </c>
       <c r="J3">
-        <v>1.063358461148407</v>
+        <v>1.087129235136191</v>
       </c>
       <c r="K3">
-        <v>1.064108402172228</v>
+        <v>1.089917968186072</v>
       </c>
       <c r="L3">
-        <v>1.062744350749614</v>
+        <v>1.0884419465658</v>
       </c>
       <c r="M3">
-        <v>1.07132195654451</v>
+        <v>1.10015474460595</v>
       </c>
       <c r="N3">
-        <v>1.064868552132158</v>
+        <v>1.088673083345551</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.0490127247407</v>
+        <v>1.083617941740146</v>
       </c>
       <c r="D4">
-        <v>1.058589824648616</v>
+        <v>1.088380876010686</v>
       </c>
       <c r="E4">
-        <v>1.057120875369099</v>
+        <v>1.086884220969942</v>
       </c>
       <c r="F4">
-        <v>1.066125015036943</v>
+        <v>1.098702973102083</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.06601955670002</v>
+        <v>1.051307837249775</v>
       </c>
       <c r="J4">
-        <v>1.067240666931545</v>
+        <v>1.08793194349308</v>
       </c>
       <c r="K4">
-        <v>1.068029035083852</v>
+        <v>1.090739213529552</v>
       </c>
       <c r="L4">
-        <v>1.066575520682987</v>
+        <v>1.089245967842914</v>
       </c>
       <c r="M4">
-        <v>1.075485865882063</v>
+        <v>1.101038067709939</v>
       </c>
       <c r="N4">
-        <v>1.068756271092803</v>
+        <v>1.089476931640378</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.051084356163902</v>
+        <v>1.084048040644832</v>
       </c>
       <c r="D5">
-        <v>1.060436294560414</v>
+        <v>1.088775595929261</v>
       </c>
       <c r="E5">
-        <v>1.058930547957883</v>
+        <v>1.087271775663825</v>
       </c>
       <c r="F5">
-        <v>1.068071393362932</v>
+        <v>1.099123373991352</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.066667143143389</v>
+        <v>1.05140734703139</v>
       </c>
       <c r="J5">
-        <v>1.068843616000975</v>
+        <v>1.088268891980627</v>
       </c>
       <c r="K5">
-        <v>1.069648478130797</v>
+        <v>1.091084014139931</v>
       </c>
       <c r="L5">
-        <v>1.06815809707666</v>
+        <v>1.08958354259694</v>
       </c>
       <c r="M5">
-        <v>1.077206474721694</v>
+        <v>1.10140901518562</v>
       </c>
       <c r="N5">
-        <v>1.070361496533773</v>
+        <v>1.089814358633426</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.051430143699138</v>
+        <v>1.084120232637107</v>
       </c>
       <c r="D6">
-        <v>1.060744565204438</v>
+        <v>1.088841852319349</v>
       </c>
       <c r="E6">
-        <v>1.059232684598563</v>
+        <v>1.087336829931167</v>
       </c>
       <c r="F6">
-        <v>1.068396373041082</v>
+        <v>1.099193945038669</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.066774975497013</v>
+        <v>1.05142401862352</v>
       </c>
       <c r="J6">
-        <v>1.069111096230371</v>
+        <v>1.088325437392734</v>
       </c>
       <c r="K6">
-        <v>1.069918747537501</v>
+        <v>1.091141881428989</v>
       </c>
       <c r="L6">
-        <v>1.06842221881564</v>
+        <v>1.089640197516387</v>
       </c>
       <c r="M6">
-        <v>1.077493667701222</v>
+        <v>1.101471275554155</v>
       </c>
       <c r="N6">
-        <v>1.070629356615775</v>
+        <v>1.089870984346505</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.049040544531736</v>
+        <v>1.083623690323932</v>
       </c>
       <c r="D7">
-        <v>1.058614616267689</v>
+        <v>1.088386151543772</v>
       </c>
       <c r="E7">
-        <v>1.057145172295569</v>
+        <v>1.086889400697156</v>
       </c>
       <c r="F7">
-        <v>1.066151146115351</v>
+        <v>1.098708591604309</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.066028270544273</v>
+        <v>1.05130916935433</v>
       </c>
       <c r="J7">
-        <v>1.067262197959714</v>
+        <v>1.087936447811492</v>
       </c>
       <c r="K7">
-        <v>1.068050785178304</v>
+        <v>1.090743822535853</v>
       </c>
       <c r="L7">
-        <v>1.066596775296539</v>
+        <v>1.089250480237661</v>
       </c>
       <c r="M7">
-        <v>1.07550897200376</v>
+        <v>1.101043025897477</v>
       </c>
       <c r="N7">
-        <v>1.068777832697502</v>
+        <v>1.089481442355439</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.038741286386357</v>
+        <v>1.081544763411392</v>
       </c>
       <c r="D8">
-        <v>1.049444796456945</v>
+        <v>1.08647862350074</v>
       </c>
       <c r="E8">
-        <v>1.048159478983004</v>
+        <v>1.085016585106685</v>
       </c>
       <c r="F8">
-        <v>1.056489314771311</v>
+        <v>1.096677509515869</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.062771872753592</v>
+        <v>1.050823814025494</v>
       </c>
       <c r="J8">
-        <v>1.059282411272401</v>
+        <v>1.086306188069514</v>
       </c>
       <c r="K8">
-        <v>1.059994205198531</v>
+        <v>1.089076156656211</v>
       </c>
       <c r="L8">
-        <v>1.058724343874236</v>
+        <v>1.087617809852877</v>
       </c>
       <c r="M8">
-        <v>1.066954839376312</v>
+        <v>1.099249585633407</v>
       </c>
       <c r="N8">
-        <v>1.060786713797799</v>
+        <v>1.087848867457634</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.019260449089098</v>
+        <v>1.077867804430607</v>
       </c>
       <c r="D9">
-        <v>1.032146477605772</v>
+        <v>1.083106380026237</v>
       </c>
       <c r="E9">
-        <v>1.031214534487902</v>
+        <v>1.081706044906722</v>
       </c>
       <c r="F9">
-        <v>1.03827902405277</v>
+        <v>1.093088987341021</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.0564693216721</v>
+        <v>1.049948403133732</v>
       </c>
       <c r="J9">
-        <v>1.044150935284796</v>
+        <v>1.083416633633492</v>
       </c>
       <c r="K9">
-        <v>1.044738675424824</v>
+        <v>1.086122578427304</v>
       </c>
       <c r="L9">
-        <v>1.043820693578756</v>
+        <v>1.084726394391101</v>
       </c>
       <c r="M9">
-        <v>1.050780145315941</v>
+        <v>1.096075928924237</v>
       </c>
       <c r="N9">
-        <v>1.045633749378687</v>
+        <v>1.084955209522876</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.005201213599752</v>
+        <v>1.075406792884788</v>
       </c>
       <c r="D10">
-        <v>1.019700602588757</v>
+        <v>1.080850409747116</v>
       </c>
       <c r="E10">
-        <v>1.019027565862697</v>
+        <v>1.079491581990393</v>
       </c>
       <c r="F10">
-        <v>1.025187571886004</v>
+        <v>1.090689772807788</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.051828194900468</v>
+        <v>1.049351094698906</v>
       </c>
       <c r="J10">
-        <v>1.033209979573608</v>
+        <v>1.081478529996803</v>
       </c>
       <c r="K10">
-        <v>1.033723039376525</v>
+        <v>1.084143061634427</v>
       </c>
       <c r="L10">
-        <v>1.033061565050333</v>
+        <v>1.082788662914622</v>
       </c>
       <c r="M10">
-        <v>1.039116476510537</v>
+        <v>1.093950714173298</v>
       </c>
       <c r="N10">
-        <v>1.034677256255443</v>
+        <v>1.08301435355672</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9988122115881304</v>
+        <v>1.074338723513763</v>
       </c>
       <c r="D11">
-        <v>1.014055614220793</v>
+        <v>1.079871595539167</v>
       </c>
       <c r="E11">
-        <v>1.013501259457314</v>
+        <v>1.07853083178169</v>
       </c>
       <c r="F11">
-        <v>1.019252168264021</v>
+        <v>1.089649149765461</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049698394345566</v>
+        <v>1.049089169413289</v>
       </c>
       <c r="J11">
-        <v>1.028234487567744</v>
+        <v>1.08063643236617</v>
       </c>
       <c r="K11">
-        <v>1.028717242501193</v>
+        <v>1.083283332388358</v>
       </c>
       <c r="L11">
-        <v>1.028172975560203</v>
+        <v>1.081947110862081</v>
       </c>
       <c r="M11">
-        <v>1.033819925873472</v>
+        <v>1.093028133267266</v>
       </c>
       <c r="N11">
-        <v>1.029694698480234</v>
+        <v>1.082171060050861</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9963890934635281</v>
+        <v>1.07394161852334</v>
       </c>
       <c r="D12">
-        <v>1.011916475326868</v>
+        <v>1.07950771636147</v>
       </c>
       <c r="E12">
-        <v>1.011407296751591</v>
+        <v>1.078173676286624</v>
       </c>
       <c r="F12">
-        <v>1.017003326443526</v>
+        <v>1.089262344118987</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048887650523727</v>
+        <v>1.048991381843327</v>
       </c>
       <c r="J12">
-        <v>1.026347063451772</v>
+        <v>1.080323198007798</v>
       </c>
       <c r="K12">
-        <v>1.026818880914939</v>
+        <v>1.082963593995038</v>
       </c>
       <c r="L12">
-        <v>1.026319166252734</v>
+        <v>1.081634137084223</v>
       </c>
       <c r="M12">
-        <v>1.031811862150538</v>
+        <v>1.092685084072512</v>
       </c>
       <c r="N12">
-        <v>1.027804594005527</v>
+        <v>1.081857380863772</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9969112041638544</v>
+        <v>1.07402681609935</v>
       </c>
       <c r="D13">
-        <v>1.01237731257731</v>
+        <v>1.079585783580681</v>
       </c>
       <c r="E13">
-        <v>1.011858392266346</v>
+        <v>1.078250300619926</v>
       </c>
       <c r="F13">
-        <v>1.017487781601286</v>
+        <v>1.08934532769973</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049062474604035</v>
+        <v>1.04901238014224</v>
       </c>
       <c r="J13">
-        <v>1.026753763551036</v>
+        <v>1.080390407966315</v>
       </c>
       <c r="K13">
-        <v>1.027227912448155</v>
+        <v>1.083032197049159</v>
       </c>
       <c r="L13">
-        <v>1.026718593521039</v>
+        <v>1.08170128852314</v>
       </c>
       <c r="M13">
-        <v>1.03224450537869</v>
+        <v>1.092758685791109</v>
       </c>
       <c r="N13">
-        <v>1.028211871665582</v>
+        <v>1.081924686268139</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9986129646242072</v>
+        <v>1.074305906433014</v>
       </c>
       <c r="D14">
-        <v>1.013879680587221</v>
+        <v>1.079841523426093</v>
       </c>
       <c r="E14">
-        <v>1.013329037154192</v>
+        <v>1.07850131516523</v>
       </c>
       <c r="F14">
-        <v>1.019067205112928</v>
+        <v>1.08961718189171</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049631788669998</v>
+        <v>1.049081096415766</v>
       </c>
       <c r="J14">
-        <v>1.028079296655967</v>
+        <v>1.08061054937688</v>
       </c>
       <c r="K14">
-        <v>1.028561140895857</v>
+        <v>1.083256910852956</v>
       </c>
       <c r="L14">
-        <v>1.028020535335569</v>
+        <v>1.081921248229722</v>
       </c>
       <c r="M14">
-        <v>1.033654792121673</v>
+        <v>1.092999784140145</v>
       </c>
       <c r="N14">
-        <v>1.029539287179563</v>
+        <v>1.082145140304758</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9996547033504294</v>
+        <v>1.074477812993498</v>
       </c>
       <c r="D15">
-        <v>1.014799602613317</v>
+        <v>1.079999052634826</v>
       </c>
       <c r="E15">
-        <v>1.014229561676426</v>
+        <v>1.078655934810668</v>
       </c>
       <c r="F15">
-        <v>1.020034354774879</v>
+        <v>1.089784643917726</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049979907886888</v>
+        <v>1.049123368849528</v>
       </c>
       <c r="J15">
-        <v>1.028890678241406</v>
+        <v>1.08074612697499</v>
       </c>
       <c r="K15">
-        <v>1.029377306577988</v>
+        <v>1.083395311633225</v>
       </c>
       <c r="L15">
-        <v>1.028817562001549</v>
+        <v>1.082056721555324</v>
       </c>
       <c r="M15">
-        <v>1.034518204507305</v>
+        <v>1.093148284618123</v>
       </c>
       <c r="N15">
-        <v>1.030351821019919</v>
+        <v>1.082280910438608</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.005618497591915</v>
+        <v>1.075477624921626</v>
       </c>
       <c r="D16">
-        <v>1.020069530931433</v>
+        <v>1.080915328281225</v>
       </c>
       <c r="E16">
-        <v>1.019388764771567</v>
+        <v>1.07955530361413</v>
       </c>
       <c r="F16">
-        <v>1.025575528908006</v>
+        <v>1.090758797917474</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.051966880527923</v>
+        <v>1.049368408308746</v>
       </c>
       <c r="J16">
-        <v>1.03353488075593</v>
+        <v>1.081534355739272</v>
       </c>
       <c r="K16">
-        <v>1.034049995728578</v>
+        <v>1.084200063859495</v>
       </c>
       <c r="L16">
-        <v>1.033380879776468</v>
+        <v>1.08284446056298</v>
       </c>
       <c r="M16">
-        <v>1.03946250071451</v>
+        <v>1.094011892602515</v>
       </c>
       <c r="N16">
-        <v>1.035002618834711</v>
+        <v>1.083070258578147</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.009275660656501</v>
+        <v>1.076104121107412</v>
       </c>
       <c r="D17">
-        <v>1.023304134579251</v>
+        <v>1.081489551657242</v>
       </c>
       <c r="E17">
-        <v>1.022555742657065</v>
+        <v>1.08011894631023</v>
       </c>
       <c r="F17">
-        <v>1.028977236391479</v>
+        <v>1.091369384567647</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.053180031809656</v>
+        <v>1.049521232975542</v>
       </c>
       <c r="J17">
-        <v>1.03638199704628</v>
+        <v>1.082028012383508</v>
       </c>
       <c r="K17">
-        <v>1.036915533964426</v>
+        <v>1.084704165685229</v>
       </c>
       <c r="L17">
-        <v>1.036179517797419</v>
+        <v>1.083337913039003</v>
       </c>
       <c r="M17">
-        <v>1.042495574951229</v>
+        <v>1.094552976109807</v>
       </c>
       <c r="N17">
-        <v>1.037853778356762</v>
+        <v>1.08356461627144</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.011380105311324</v>
+        <v>1.076469311500813</v>
       </c>
       <c r="D18">
-        <v>1.025166429850281</v>
+        <v>1.081824297527541</v>
       </c>
       <c r="E18">
-        <v>1.024379219395151</v>
+        <v>1.08044752941692</v>
       </c>
       <c r="F18">
-        <v>1.030935965728683</v>
+        <v>1.091725361479467</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.053876166838742</v>
+        <v>1.04961005609887</v>
       </c>
       <c r="J18">
-        <v>1.038019974250236</v>
+        <v>1.082315676057917</v>
       </c>
       <c r="K18">
-        <v>1.03856445139681</v>
+        <v>1.084997950857878</v>
       </c>
       <c r="L18">
-        <v>1.037789998656917</v>
+        <v>1.083625494705611</v>
       </c>
       <c r="M18">
-        <v>1.044241247114559</v>
+        <v>1.094868354921377</v>
       </c>
       <c r="N18">
-        <v>1.039494081676226</v>
+        <v>1.083852688461263</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.012092927658467</v>
+        <v>1.076593792577355</v>
       </c>
       <c r="D19">
-        <v>1.02579739643978</v>
+        <v>1.08193840544415</v>
       </c>
       <c r="E19">
-        <v>1.024997053186101</v>
+        <v>1.080559537470634</v>
       </c>
       <c r="F19">
-        <v>1.031599643825409</v>
+        <v>1.091846712202595</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.054111629118679</v>
+        <v>1.0496402888252</v>
       </c>
       <c r="J19">
-        <v>1.038574732077738</v>
+        <v>1.082413715048602</v>
       </c>
       <c r="K19">
-        <v>1.039122972260359</v>
+        <v>1.085098082040991</v>
       </c>
       <c r="L19">
-        <v>1.038335510261241</v>
+        <v>1.08372351201804</v>
       </c>
       <c r="M19">
-        <v>1.044832599970757</v>
+        <v>1.094975852866016</v>
       </c>
       <c r="N19">
-        <v>1.040049627323475</v>
+        <v>1.08395086667856</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.008886283786003</v>
+        <v>1.076036928300403</v>
       </c>
       <c r="D20">
-        <v>1.022959641888099</v>
+        <v>1.081427962527694</v>
       </c>
       <c r="E20">
-        <v>1.022218440067567</v>
+        <v>1.080058491478916</v>
       </c>
       <c r="F20">
-        <v>1.028614923397395</v>
+        <v>1.091303891838651</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.053051069903097</v>
+        <v>1.049504869137664</v>
       </c>
       <c r="J20">
-        <v>1.036078900193421</v>
+        <v>1.081975076500922</v>
       </c>
       <c r="K20">
-        <v>1.036610440347915</v>
+        <v>1.084650106134024</v>
       </c>
       <c r="L20">
-        <v>1.035881540775272</v>
+        <v>1.083284995225131</v>
       </c>
       <c r="M20">
-        <v>1.04217260745221</v>
+        <v>1.094494946413826</v>
       </c>
       <c r="N20">
-        <v>1.037550251071607</v>
+        <v>1.083511605213829</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9981132588345167</v>
+        <v>1.07422373176406</v>
       </c>
       <c r="D21">
-        <v>1.013438473553265</v>
+        <v>1.07976622287952</v>
       </c>
       <c r="E21">
-        <v>1.01289714071201</v>
+        <v>1.078427405715932</v>
       </c>
       <c r="F21">
-        <v>1.018603359380364</v>
+        <v>1.089537135190045</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049464695946331</v>
+        <v>1.049060874926293</v>
       </c>
       <c r="J21">
-        <v>1.027690076271503</v>
+        <v>1.080545735480694</v>
       </c>
       <c r="K21">
-        <v>1.028169645491851</v>
+        <v>1.083190749255237</v>
       </c>
       <c r="L21">
-        <v>1.027638224186762</v>
+        <v>1.081856486240316</v>
       </c>
       <c r="M21">
-        <v>1.033240653546384</v>
+        <v>1.092928796736671</v>
       </c>
       <c r="N21">
-        <v>1.029149514057508</v>
+        <v>1.082080234365405</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.99104793274418</v>
+        <v>1.073081519668095</v>
       </c>
       <c r="D22">
-        <v>1.007204813812404</v>
+        <v>1.078719657895916</v>
       </c>
       <c r="E22">
-        <v>1.006795531052928</v>
+        <v>1.077400194636566</v>
       </c>
       <c r="F22">
-        <v>1.012050662918579</v>
+        <v>1.08842472723106</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047095202196707</v>
+        <v>1.048778841946012</v>
       </c>
       <c r="J22">
-        <v>1.022186132316556</v>
+        <v>1.079644491782671</v>
       </c>
       <c r="K22">
-        <v>1.022634880479861</v>
+        <v>1.082270894505708</v>
       </c>
       <c r="L22">
-        <v>1.022233558566868</v>
+        <v>1.080956100920828</v>
       </c>
       <c r="M22">
-        <v>1.027387115059138</v>
+        <v>1.091941999998997</v>
       </c>
       <c r="N22">
-        <v>1.023637753870834</v>
+        <v>1.081177710797956</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9948228195090164</v>
+        <v>1.073687238447824</v>
       </c>
       <c r="D23">
-        <v>1.01053429350841</v>
+        <v>1.079274631929036</v>
       </c>
       <c r="E23">
-        <v>1.010054364020298</v>
+        <v>1.077944901081823</v>
       </c>
       <c r="F23">
-        <v>1.01555035793743</v>
+        <v>1.089014588466464</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048362770225936</v>
+        <v>1.048928626623687</v>
       </c>
       <c r="J23">
-        <v>1.025126961112225</v>
+        <v>1.080122503566425</v>
       </c>
       <c r="K23">
-        <v>1.02559186692934</v>
+        <v>1.082758747616988</v>
       </c>
       <c r="L23">
-        <v>1.025120978899717</v>
+        <v>1.081433625825983</v>
       </c>
       <c r="M23">
-        <v>1.030514100087799</v>
+        <v>1.092465321238345</v>
       </c>
       <c r="N23">
-        <v>1.02658275898071</v>
+        <v>1.081656401413273</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.009062314828989</v>
+        <v>1.07606729056155</v>
       </c>
       <c r="D24">
-        <v>1.023115378403961</v>
+        <v>1.0814557925882</v>
       </c>
       <c r="E24">
-        <v>1.022370925757887</v>
+        <v>1.080085808971783</v>
       </c>
       <c r="F24">
-        <v>1.028778715324396</v>
+        <v>1.091333485702965</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.053109377582931</v>
+        <v>1.049512264230984</v>
       </c>
       <c r="J24">
-        <v>1.036215926494201</v>
+        <v>1.081998996806521</v>
       </c>
       <c r="K24">
-        <v>1.03674836829862</v>
+        <v>1.084674534087499</v>
       </c>
       <c r="L24">
-        <v>1.036016251241862</v>
+        <v>1.083308907251682</v>
       </c>
       <c r="M24">
-        <v>1.042318614813705</v>
+        <v>1.094521168234241</v>
       </c>
       <c r="N24">
-        <v>1.03768747196545</v>
+        <v>1.083535559489006</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.024471416800272</v>
+        <v>1.078820056872267</v>
       </c>
       <c r="D25">
-        <v>1.036767666678638</v>
+        <v>1.083979528361682</v>
       </c>
       <c r="E25">
-        <v>1.035740571521653</v>
+        <v>1.082563176800362</v>
       </c>
       <c r="F25">
-        <v>1.043142012479323</v>
+        <v>1.094017881024008</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.05817129450343</v>
+        <v>1.050177121531633</v>
       </c>
       <c r="J25">
-        <v>1.048202382486699</v>
+        <v>1.084165689934158</v>
       </c>
       <c r="K25">
-        <v>1.048820817326719</v>
+        <v>1.086887962554953</v>
       </c>
       <c r="L25">
-        <v>1.047808286438635</v>
+        <v>1.085475648143184</v>
       </c>
       <c r="M25">
-        <v>1.055105584048425</v>
+        <v>1.096898026994317</v>
       </c>
       <c r="N25">
-        <v>1.049690950100324</v>
+        <v>1.085705329569408</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_151/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_151/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.081008657837123</v>
+        <v>1.036005189330287</v>
       </c>
       <c r="D2">
-        <v>1.085986822212265</v>
+        <v>1.047011572555594</v>
       </c>
       <c r="E2">
-        <v>1.084533756139163</v>
+        <v>1.045775493204852</v>
       </c>
       <c r="F2">
-        <v>1.09615399901796</v>
+        <v>1.053926614693991</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050697501367217</v>
+        <v>1.061897206151398</v>
       </c>
       <c r="J2">
-        <v>1.085885365653844</v>
+        <v>1.057159850171626</v>
       </c>
       <c r="K2">
-        <v>1.088645832764586</v>
+        <v>1.057852625259652</v>
       </c>
       <c r="L2">
-        <v>1.08719652855668</v>
+        <v>1.056631915450066</v>
       </c>
       <c r="M2">
-        <v>1.098786988442533</v>
+        <v>1.064682511887512</v>
       </c>
       <c r="N2">
-        <v>1.087427447425865</v>
+        <v>1.0586611384168</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.082593907448944</v>
+        <v>1.04399940557719</v>
       </c>
       <c r="D3">
-        <v>1.087441188987589</v>
+        <v>1.054124201182037</v>
       </c>
       <c r="E3">
-        <v>1.085961616526383</v>
+        <v>1.052744636843694</v>
       </c>
       <c r="F3">
-        <v>1.097702308494605</v>
+        <v>1.061418959473815</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051069649742426</v>
+        <v>1.064441792842436</v>
       </c>
       <c r="J3">
-        <v>1.087129235136191</v>
+        <v>1.063358461148408</v>
       </c>
       <c r="K3">
-        <v>1.089917968186072</v>
+        <v>1.064108402172229</v>
       </c>
       <c r="L3">
-        <v>1.0884419465658</v>
+        <v>1.062744350749615</v>
       </c>
       <c r="M3">
-        <v>1.10015474460595</v>
+        <v>1.071321956544511</v>
       </c>
       <c r="N3">
-        <v>1.088673083345551</v>
+        <v>1.064868552132159</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.083617941740146</v>
+        <v>1.049012724740699</v>
       </c>
       <c r="D4">
-        <v>1.088380876010686</v>
+        <v>1.058589824648615</v>
       </c>
       <c r="E4">
-        <v>1.086884220969942</v>
+        <v>1.057120875369099</v>
       </c>
       <c r="F4">
-        <v>1.098702973102083</v>
+        <v>1.066125015036943</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051307837249775</v>
+        <v>1.066019556700019</v>
       </c>
       <c r="J4">
-        <v>1.08793194349308</v>
+        <v>1.067240666931544</v>
       </c>
       <c r="K4">
-        <v>1.090739213529552</v>
+        <v>1.068029035083851</v>
       </c>
       <c r="L4">
-        <v>1.089245967842914</v>
+        <v>1.066575520682986</v>
       </c>
       <c r="M4">
-        <v>1.101038067709939</v>
+        <v>1.075485865882062</v>
       </c>
       <c r="N4">
-        <v>1.089476931640378</v>
+        <v>1.068756271092802</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.084048040644832</v>
+        <v>1.051084356163901</v>
       </c>
       <c r="D5">
-        <v>1.088775595929261</v>
+        <v>1.060436294560413</v>
       </c>
       <c r="E5">
-        <v>1.087271775663825</v>
+        <v>1.058930547957882</v>
       </c>
       <c r="F5">
-        <v>1.099123373991352</v>
+        <v>1.068071393362931</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05140734703139</v>
+        <v>1.066667143143389</v>
       </c>
       <c r="J5">
-        <v>1.088268891980627</v>
+        <v>1.068843616000975</v>
       </c>
       <c r="K5">
-        <v>1.091084014139931</v>
+        <v>1.069648478130797</v>
       </c>
       <c r="L5">
-        <v>1.08958354259694</v>
+        <v>1.06815809707666</v>
       </c>
       <c r="M5">
-        <v>1.10140901518562</v>
+        <v>1.077206474721693</v>
       </c>
       <c r="N5">
-        <v>1.089814358633426</v>
+        <v>1.070361496533772</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.084120232637107</v>
+        <v>1.051430143699135</v>
       </c>
       <c r="D6">
-        <v>1.088841852319349</v>
+        <v>1.060744565204436</v>
       </c>
       <c r="E6">
-        <v>1.087336829931167</v>
+        <v>1.05923268459856</v>
       </c>
       <c r="F6">
-        <v>1.099193945038669</v>
+        <v>1.068396373041079</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05142401862352</v>
+        <v>1.066774975497013</v>
       </c>
       <c r="J6">
-        <v>1.088325437392734</v>
+        <v>1.069111096230369</v>
       </c>
       <c r="K6">
-        <v>1.091141881428989</v>
+        <v>1.069918747537499</v>
       </c>
       <c r="L6">
-        <v>1.089640197516387</v>
+        <v>1.068422218815638</v>
       </c>
       <c r="M6">
-        <v>1.101471275554155</v>
+        <v>1.077493667701219</v>
       </c>
       <c r="N6">
-        <v>1.089870984346505</v>
+        <v>1.070629356615773</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.083623690323932</v>
+        <v>1.049040544531735</v>
       </c>
       <c r="D7">
-        <v>1.088386151543772</v>
+        <v>1.058614616267688</v>
       </c>
       <c r="E7">
-        <v>1.086889400697156</v>
+        <v>1.057145172295568</v>
       </c>
       <c r="F7">
-        <v>1.098708591604309</v>
+        <v>1.06615114611535</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05130916935433</v>
+        <v>1.066028270544272</v>
       </c>
       <c r="J7">
-        <v>1.087936447811492</v>
+        <v>1.067262197959713</v>
       </c>
       <c r="K7">
-        <v>1.090743822535853</v>
+        <v>1.068050785178302</v>
       </c>
       <c r="L7">
-        <v>1.089250480237661</v>
+        <v>1.066596775296537</v>
       </c>
       <c r="M7">
-        <v>1.101043025897477</v>
+        <v>1.075508972003758</v>
       </c>
       <c r="N7">
-        <v>1.089481442355439</v>
+        <v>1.068777832697501</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.081544763411392</v>
+        <v>1.038741286386354</v>
       </c>
       <c r="D8">
-        <v>1.08647862350074</v>
+        <v>1.049444796456943</v>
       </c>
       <c r="E8">
-        <v>1.085016585106685</v>
+        <v>1.048159478983001</v>
       </c>
       <c r="F8">
-        <v>1.096677509515869</v>
+        <v>1.056489314771309</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050823814025494</v>
+        <v>1.062771872753591</v>
       </c>
       <c r="J8">
-        <v>1.086306188069514</v>
+        <v>1.059282411272399</v>
       </c>
       <c r="K8">
-        <v>1.089076156656211</v>
+        <v>1.059994205198529</v>
       </c>
       <c r="L8">
-        <v>1.087617809852877</v>
+        <v>1.058724343874234</v>
       </c>
       <c r="M8">
-        <v>1.099249585633407</v>
+        <v>1.06695483937631</v>
       </c>
       <c r="N8">
-        <v>1.087848867457634</v>
+        <v>1.060786713797797</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.077867804430607</v>
+        <v>1.019260449089098</v>
       </c>
       <c r="D9">
-        <v>1.083106380026237</v>
+        <v>1.032146477605772</v>
       </c>
       <c r="E9">
-        <v>1.081706044906722</v>
+        <v>1.031214534487901</v>
       </c>
       <c r="F9">
-        <v>1.093088987341021</v>
+        <v>1.038279024052769</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049948403133732</v>
+        <v>1.0564693216721</v>
       </c>
       <c r="J9">
-        <v>1.083416633633492</v>
+        <v>1.044150935284796</v>
       </c>
       <c r="K9">
-        <v>1.086122578427304</v>
+        <v>1.044738675424824</v>
       </c>
       <c r="L9">
-        <v>1.084726394391101</v>
+        <v>1.043820693578756</v>
       </c>
       <c r="M9">
-        <v>1.096075928924237</v>
+        <v>1.05078014531594</v>
       </c>
       <c r="N9">
-        <v>1.084955209522876</v>
+        <v>1.045633749378687</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.075406792884788</v>
+        <v>1.005201213599753</v>
       </c>
       <c r="D10">
-        <v>1.080850409747116</v>
+        <v>1.019700602588758</v>
       </c>
       <c r="E10">
-        <v>1.079491581990393</v>
+        <v>1.019027565862697</v>
       </c>
       <c r="F10">
-        <v>1.090689772807788</v>
+        <v>1.025187571886005</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049351094698906</v>
+        <v>1.051828194900468</v>
       </c>
       <c r="J10">
-        <v>1.081478529996803</v>
+        <v>1.033209979573608</v>
       </c>
       <c r="K10">
-        <v>1.084143061634427</v>
+        <v>1.033723039376526</v>
       </c>
       <c r="L10">
-        <v>1.082788662914622</v>
+        <v>1.033061565050333</v>
       </c>
       <c r="M10">
-        <v>1.093950714173298</v>
+        <v>1.039116476510539</v>
       </c>
       <c r="N10">
-        <v>1.08301435355672</v>
+        <v>1.034677256255444</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.074338723513763</v>
+        <v>0.9988122115881289</v>
       </c>
       <c r="D11">
-        <v>1.079871595539167</v>
+        <v>1.014055614220791</v>
       </c>
       <c r="E11">
-        <v>1.07853083178169</v>
+        <v>1.013501259457312</v>
       </c>
       <c r="F11">
-        <v>1.089649149765461</v>
+        <v>1.019252168264019</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049089169413289</v>
+        <v>1.049698394345565</v>
       </c>
       <c r="J11">
-        <v>1.08063643236617</v>
+        <v>1.028234487567743</v>
       </c>
       <c r="K11">
-        <v>1.083283332388358</v>
+        <v>1.028717242501191</v>
       </c>
       <c r="L11">
-        <v>1.081947110862081</v>
+        <v>1.028172975560201</v>
       </c>
       <c r="M11">
-        <v>1.093028133267266</v>
+        <v>1.03381992587347</v>
       </c>
       <c r="N11">
-        <v>1.082171060050861</v>
+        <v>1.029694698480233</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.07394161852334</v>
+        <v>0.9963890934635273</v>
       </c>
       <c r="D12">
-        <v>1.07950771636147</v>
+        <v>1.011916475326868</v>
       </c>
       <c r="E12">
-        <v>1.078173676286624</v>
+        <v>1.011407296751591</v>
       </c>
       <c r="F12">
-        <v>1.089262344118987</v>
+        <v>1.017003326443526</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048991381843327</v>
+        <v>1.048887650523726</v>
       </c>
       <c r="J12">
-        <v>1.080323198007798</v>
+        <v>1.026347063451771</v>
       </c>
       <c r="K12">
-        <v>1.082963593995038</v>
+        <v>1.026818880914939</v>
       </c>
       <c r="L12">
-        <v>1.081634137084223</v>
+        <v>1.026319166252733</v>
       </c>
       <c r="M12">
-        <v>1.092685084072512</v>
+        <v>1.031811862150537</v>
       </c>
       <c r="N12">
-        <v>1.081857380863772</v>
+        <v>1.027804594005526</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.07402681609935</v>
+        <v>0.9969112041638534</v>
       </c>
       <c r="D13">
-        <v>1.079585783580681</v>
+        <v>1.012377312577309</v>
       </c>
       <c r="E13">
-        <v>1.078250300619926</v>
+        <v>1.011858392266345</v>
       </c>
       <c r="F13">
-        <v>1.08934532769973</v>
+        <v>1.017487781601285</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04901238014224</v>
+        <v>1.049062474604035</v>
       </c>
       <c r="J13">
-        <v>1.080390407966315</v>
+        <v>1.026753763551036</v>
       </c>
       <c r="K13">
-        <v>1.083032197049159</v>
+        <v>1.027227912448154</v>
       </c>
       <c r="L13">
-        <v>1.08170128852314</v>
+        <v>1.026718593521038</v>
       </c>
       <c r="M13">
-        <v>1.092758685791109</v>
+        <v>1.032244505378688</v>
       </c>
       <c r="N13">
-        <v>1.081924686268139</v>
+        <v>1.028211871665581</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.074305906433014</v>
+        <v>0.9986129646242086</v>
       </c>
       <c r="D14">
-        <v>1.079841523426093</v>
+        <v>1.013879680587222</v>
       </c>
       <c r="E14">
-        <v>1.07850131516523</v>
+        <v>1.013329037154193</v>
       </c>
       <c r="F14">
-        <v>1.08961718189171</v>
+        <v>1.019067205112929</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049081096415766</v>
+        <v>1.049631788669998</v>
       </c>
       <c r="J14">
-        <v>1.08061054937688</v>
+        <v>1.028079296655968</v>
       </c>
       <c r="K14">
-        <v>1.083256910852956</v>
+        <v>1.028561140895858</v>
       </c>
       <c r="L14">
-        <v>1.081921248229722</v>
+        <v>1.02802053533557</v>
       </c>
       <c r="M14">
-        <v>1.092999784140145</v>
+        <v>1.033654792121674</v>
       </c>
       <c r="N14">
-        <v>1.082145140304758</v>
+        <v>1.029539287179563</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.074477812993498</v>
+        <v>0.9996547033504297</v>
       </c>
       <c r="D15">
-        <v>1.079999052634826</v>
+        <v>1.014799602613318</v>
       </c>
       <c r="E15">
-        <v>1.078655934810668</v>
+        <v>1.014229561676426</v>
       </c>
       <c r="F15">
-        <v>1.089784643917726</v>
+        <v>1.020034354774879</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049123368849528</v>
+        <v>1.049979907886888</v>
       </c>
       <c r="J15">
-        <v>1.08074612697499</v>
+        <v>1.028890678241407</v>
       </c>
       <c r="K15">
-        <v>1.083395311633225</v>
+        <v>1.029377306577988</v>
       </c>
       <c r="L15">
-        <v>1.082056721555324</v>
+        <v>1.028817562001549</v>
       </c>
       <c r="M15">
-        <v>1.093148284618123</v>
+        <v>1.034518204507305</v>
       </c>
       <c r="N15">
-        <v>1.082280910438608</v>
+        <v>1.03035182101992</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.075477624921626</v>
+        <v>1.005618497591914</v>
       </c>
       <c r="D16">
-        <v>1.080915328281225</v>
+        <v>1.020069530931432</v>
       </c>
       <c r="E16">
-        <v>1.07955530361413</v>
+        <v>1.019388764771567</v>
       </c>
       <c r="F16">
-        <v>1.090758797917474</v>
+        <v>1.025575528908006</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049368408308746</v>
+        <v>1.051966880527922</v>
       </c>
       <c r="J16">
-        <v>1.081534355739272</v>
+        <v>1.033534880755929</v>
       </c>
       <c r="K16">
-        <v>1.084200063859495</v>
+        <v>1.034049995728578</v>
       </c>
       <c r="L16">
-        <v>1.08284446056298</v>
+        <v>1.033380879776467</v>
       </c>
       <c r="M16">
-        <v>1.094011892602515</v>
+        <v>1.039462500714509</v>
       </c>
       <c r="N16">
-        <v>1.083070258578147</v>
+        <v>1.03500261883471</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.076104121107412</v>
+        <v>1.009275660656502</v>
       </c>
       <c r="D17">
-        <v>1.081489551657242</v>
+        <v>1.023304134579251</v>
       </c>
       <c r="E17">
-        <v>1.08011894631023</v>
+        <v>1.022555742657065</v>
       </c>
       <c r="F17">
-        <v>1.091369384567647</v>
+        <v>1.028977236391479</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049521232975542</v>
+        <v>1.053180031809656</v>
       </c>
       <c r="J17">
-        <v>1.082028012383508</v>
+        <v>1.03638199704628</v>
       </c>
       <c r="K17">
-        <v>1.084704165685229</v>
+        <v>1.036915533964426</v>
       </c>
       <c r="L17">
-        <v>1.083337913039003</v>
+        <v>1.036179517797418</v>
       </c>
       <c r="M17">
-        <v>1.094552976109807</v>
+        <v>1.042495574951229</v>
       </c>
       <c r="N17">
-        <v>1.08356461627144</v>
+        <v>1.037853778356763</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.076469311500813</v>
+        <v>1.011380105311322</v>
       </c>
       <c r="D18">
-        <v>1.081824297527541</v>
+        <v>1.02516642985028</v>
       </c>
       <c r="E18">
-        <v>1.08044752941692</v>
+        <v>1.02437921939515</v>
       </c>
       <c r="F18">
-        <v>1.091725361479467</v>
+        <v>1.030935965728683</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04961005609887</v>
+        <v>1.053876166838742</v>
       </c>
       <c r="J18">
-        <v>1.082315676057917</v>
+        <v>1.038019974250235</v>
       </c>
       <c r="K18">
-        <v>1.084997950857878</v>
+        <v>1.038564451396809</v>
       </c>
       <c r="L18">
-        <v>1.083625494705611</v>
+        <v>1.037789998656916</v>
       </c>
       <c r="M18">
-        <v>1.094868354921377</v>
+        <v>1.044241247114558</v>
       </c>
       <c r="N18">
-        <v>1.083852688461263</v>
+        <v>1.039494081676225</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.076593792577355</v>
+        <v>1.012092927658467</v>
       </c>
       <c r="D19">
-        <v>1.08193840544415</v>
+        <v>1.02579739643978</v>
       </c>
       <c r="E19">
-        <v>1.080559537470634</v>
+        <v>1.0249970531861</v>
       </c>
       <c r="F19">
-        <v>1.091846712202595</v>
+        <v>1.031599643825409</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.0496402888252</v>
+        <v>1.054111629118679</v>
       </c>
       <c r="J19">
-        <v>1.082413715048602</v>
+        <v>1.038574732077738</v>
       </c>
       <c r="K19">
-        <v>1.085098082040991</v>
+        <v>1.039122972260359</v>
       </c>
       <c r="L19">
-        <v>1.08372351201804</v>
+        <v>1.038335510261241</v>
       </c>
       <c r="M19">
-        <v>1.094975852866016</v>
+        <v>1.044832599970757</v>
       </c>
       <c r="N19">
-        <v>1.08395086667856</v>
+        <v>1.040049627323475</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.076036928300403</v>
+        <v>1.008886283786002</v>
       </c>
       <c r="D20">
-        <v>1.081427962527694</v>
+        <v>1.022959641888098</v>
       </c>
       <c r="E20">
-        <v>1.080058491478916</v>
+        <v>1.022218440067566</v>
       </c>
       <c r="F20">
-        <v>1.091303891838651</v>
+        <v>1.028614923397393</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049504869137664</v>
+        <v>1.053051069903096</v>
       </c>
       <c r="J20">
-        <v>1.081975076500922</v>
+        <v>1.03607890019342</v>
       </c>
       <c r="K20">
-        <v>1.084650106134024</v>
+        <v>1.036610440347913</v>
       </c>
       <c r="L20">
-        <v>1.083284995225131</v>
+        <v>1.035881540775271</v>
       </c>
       <c r="M20">
-        <v>1.094494946413826</v>
+        <v>1.042172607452209</v>
       </c>
       <c r="N20">
-        <v>1.083511605213829</v>
+        <v>1.037550251071605</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.07422373176406</v>
+        <v>0.9981132588345171</v>
       </c>
       <c r="D21">
-        <v>1.07976622287952</v>
+        <v>1.013438473553265</v>
       </c>
       <c r="E21">
-        <v>1.078427405715932</v>
+        <v>1.01289714071201</v>
       </c>
       <c r="F21">
-        <v>1.089537135190045</v>
+        <v>1.018603359380364</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049060874926293</v>
+        <v>1.049464695946331</v>
       </c>
       <c r="J21">
-        <v>1.080545735480694</v>
+        <v>1.027690076271503</v>
       </c>
       <c r="K21">
-        <v>1.083190749255237</v>
+        <v>1.028169645491852</v>
       </c>
       <c r="L21">
-        <v>1.081856486240316</v>
+        <v>1.027638224186763</v>
       </c>
       <c r="M21">
-        <v>1.092928796736671</v>
+        <v>1.033240653546384</v>
       </c>
       <c r="N21">
-        <v>1.082080234365405</v>
+        <v>1.029149514057508</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.073081519668095</v>
+        <v>0.9910479327441789</v>
       </c>
       <c r="D22">
-        <v>1.078719657895916</v>
+        <v>1.007204813812403</v>
       </c>
       <c r="E22">
-        <v>1.077400194636566</v>
+        <v>1.006795531052927</v>
       </c>
       <c r="F22">
-        <v>1.08842472723106</v>
+        <v>1.012050662918577</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048778841946012</v>
+        <v>1.047095202196706</v>
       </c>
       <c r="J22">
-        <v>1.079644491782671</v>
+        <v>1.022186132316555</v>
       </c>
       <c r="K22">
-        <v>1.082270894505708</v>
+        <v>1.02263488047986</v>
       </c>
       <c r="L22">
-        <v>1.080956100920828</v>
+        <v>1.022233558566867</v>
       </c>
       <c r="M22">
-        <v>1.091941999998997</v>
+        <v>1.027387115059136</v>
       </c>
       <c r="N22">
-        <v>1.081177710797956</v>
+        <v>1.023637753870832</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.073687238447824</v>
+        <v>0.9948228195090134</v>
       </c>
       <c r="D23">
-        <v>1.079274631929036</v>
+        <v>1.010534293508407</v>
       </c>
       <c r="E23">
-        <v>1.077944901081823</v>
+        <v>1.010054364020295</v>
       </c>
       <c r="F23">
-        <v>1.089014588466464</v>
+        <v>1.015550357937427</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048928626623687</v>
+        <v>1.048362770225935</v>
       </c>
       <c r="J23">
-        <v>1.080122503566425</v>
+        <v>1.025126961112222</v>
       </c>
       <c r="K23">
-        <v>1.082758747616988</v>
+        <v>1.025591866929337</v>
       </c>
       <c r="L23">
-        <v>1.081433625825983</v>
+        <v>1.025120978899714</v>
       </c>
       <c r="M23">
-        <v>1.092465321238345</v>
+        <v>1.030514100087796</v>
       </c>
       <c r="N23">
-        <v>1.081656401413273</v>
+        <v>1.026582758980707</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.07606729056155</v>
+        <v>1.009062314828989</v>
       </c>
       <c r="D24">
-        <v>1.0814557925882</v>
+        <v>1.023115378403961</v>
       </c>
       <c r="E24">
-        <v>1.080085808971783</v>
+        <v>1.022370925757886</v>
       </c>
       <c r="F24">
-        <v>1.091333485702965</v>
+        <v>1.028778715324396</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049512264230984</v>
+        <v>1.053109377582931</v>
       </c>
       <c r="J24">
-        <v>1.081998996806521</v>
+        <v>1.036215926494201</v>
       </c>
       <c r="K24">
-        <v>1.084674534087499</v>
+        <v>1.03674836829862</v>
       </c>
       <c r="L24">
-        <v>1.083308907251682</v>
+        <v>1.036016251241862</v>
       </c>
       <c r="M24">
-        <v>1.094521168234241</v>
+        <v>1.042318614813705</v>
       </c>
       <c r="N24">
-        <v>1.083535559489006</v>
+        <v>1.03768747196545</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.078820056872267</v>
+        <v>1.024471416800273</v>
       </c>
       <c r="D25">
-        <v>1.083979528361682</v>
+        <v>1.036767666678637</v>
       </c>
       <c r="E25">
-        <v>1.082563176800362</v>
+        <v>1.035740571521652</v>
       </c>
       <c r="F25">
-        <v>1.094017881024008</v>
+        <v>1.043142012479323</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050177121531633</v>
+        <v>1.058171294503431</v>
       </c>
       <c r="J25">
-        <v>1.084165689934158</v>
+        <v>1.048202382486699</v>
       </c>
       <c r="K25">
-        <v>1.086887962554953</v>
+        <v>1.048820817326719</v>
       </c>
       <c r="L25">
-        <v>1.085475648143184</v>
+        <v>1.047808286438635</v>
       </c>
       <c r="M25">
-        <v>1.096898026994317</v>
+        <v>1.055105584048425</v>
       </c>
       <c r="N25">
-        <v>1.085705329569408</v>
+        <v>1.049690950100324</v>
       </c>
     </row>
   </sheetData>
